--- a/Data_Sets/Club_specs.xlsx
+++ b/Data_Sets/Club_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanwenger/Desktop/Desktop_Master/Coding/github_projects/Golf_Caddie/Golf_Caddie/Data_Sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9A2B36B-AB1B-514B-A7FE-E06E40C15A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB95C72F-AFD6-884D-9A52-5B817F1C1BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="680" windowWidth="25220" windowHeight="16200" xr2:uid="{A6FEDEE0-EFC1-E64C-9152-8FE418930BD7}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Club</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>PM LW</t>
+  </si>
+  <si>
+    <t>BB4H</t>
+  </si>
+  <si>
+    <t>BB5H</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8D0606-C8C2-AD46-B225-411B06205457}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,6 +632,10 @@
       <c r="B11">
         <v>56</v>
       </c>
+      <c r="D11">
+        <f>[1]Sheet1!$J$2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -634,6 +644,10 @@
       <c r="B12">
         <v>60</v>
       </c>
+      <c r="D12">
+        <f>[1]Sheet1!$K$2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -645,6 +659,10 @@
       <c r="C13">
         <v>62</v>
       </c>
+      <c r="D13">
+        <f>[1]Sheet1!$O$2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -656,6 +674,10 @@
       <c r="C14">
         <v>62.5</v>
       </c>
+      <c r="D14">
+        <f>[1]Sheet1!$P$2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -667,6 +689,10 @@
       <c r="C15">
         <v>63</v>
       </c>
+      <c r="D15">
+        <f>[1]Sheet1!$Q$2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -678,8 +704,12 @@
       <c r="C16">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f>[1]Sheet1!$R$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -689,8 +719,12 @@
       <c r="C17">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f>[1]Sheet1!$S$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -699,6 +733,34 @@
       </c>
       <c r="C18">
         <v>64</v>
+      </c>
+      <c r="D18">
+        <f>[1]Sheet1!$T$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <f>[1]Sheet1!$U$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <f>[1]Sheet1!$V$2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
